--- a/BizCase_ROI_example.xlsx
+++ b/BizCase_ROI_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jospolfliet/src/vlerick/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6EC1E84-B751-6F44-AF39-1BDB594472A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D33EF53-1107-704B-8CBE-4C447F03D43C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="1" xr2:uid="{2328550C-29FC-4CBB-B216-D7C64DE9F7C9}"/>
   </bookViews>
